--- a/Data/kq11/kq11_air.xlsx
+++ b/Data/kq11/kq11_air.xlsx
@@ -5173,6 +5173,5616 @@
         <v>-0.876000</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>32510.000000</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>32515.000000</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E303" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>32520.000000</v>
+      </c>
+      <c r="B304" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D304" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E304" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>32525.000000</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E305" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>32530.000000</v>
+      </c>
+      <c r="B306" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D306" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E306" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>32535.000000</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D307" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E307" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>32540.000000</v>
+      </c>
+      <c r="B308" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D308" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E308" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>32545.000000</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E309" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>32550.000000</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E310" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>32555.000000</v>
+      </c>
+      <c r="B311" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E311" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>32560.000000</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D312" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E312" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>32565.000000</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D313" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E313" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>32570.000000</v>
+      </c>
+      <c r="B314" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="C314" s="1">
+        <v>-0.000061</v>
+      </c>
+      <c r="D314" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="E314" s="1">
+        <v>-5.712000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>32575.000000</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="C315" s="1">
+        <v>-0.000061</v>
+      </c>
+      <c r="D315" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="E315" s="1">
+        <v>-5.712000</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>32580.000000</v>
+      </c>
+      <c r="B316" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="C316" s="1">
+        <v>-0.000122</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="E316" s="1">
+        <v>-11.310000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>32585.000000</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C317" s="1">
+        <v>-0.000122</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E317" s="1">
+        <v>-18.432000</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>32590.000000</v>
+      </c>
+      <c r="B318" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="C318" s="1">
+        <v>-0.000122</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E318" s="1">
+        <v>-23.202000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>32595.000000</v>
+      </c>
+      <c r="B319" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="C319" s="1">
+        <v>-0.000061</v>
+      </c>
+      <c r="D319" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="E319" s="1">
+        <v>-8.130000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>32600.000000</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="C320" s="1">
+        <v>-0.000061</v>
+      </c>
+      <c r="D320" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="E320" s="1">
+        <v>-8.130000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>32605.000000</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D321" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="E321" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>32610.000000</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0.000183</v>
+      </c>
+      <c r="E322" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>32615.000000</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E323" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>32620.000000</v>
+      </c>
+      <c r="B324" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E324" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>32625.000000</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D325" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E325" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>32630.000000</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D326" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E326" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>32635.000000</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D327" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>32640.000000</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D328" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E328" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>32645.000000</v>
+      </c>
+      <c r="B329" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E329" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>32650.000000</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C330" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D330" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E330" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>32655.000000</v>
+      </c>
+      <c r="B331" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D331" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E331" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>32510.000000</v>
+      </c>
+      <c r="B332" s="1">
+        <v>0.000288</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0.000288</v>
+      </c>
+      <c r="E332" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>32510.500000</v>
+      </c>
+      <c r="B333" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D333" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E333" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>32511.000000</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E334" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>32511.500000</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E335" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>32512.000000</v>
+      </c>
+      <c r="B336" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D336" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E336" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>32512.500000</v>
+      </c>
+      <c r="B337" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E337" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>32513.000000</v>
+      </c>
+      <c r="B338" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D338" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E338" s="1">
+        <v>0.066000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>32513.500000</v>
+      </c>
+      <c r="B339" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D339" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E339" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>32514.000000</v>
+      </c>
+      <c r="B340" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E340" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>32514.500000</v>
+      </c>
+      <c r="B341" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E341" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>32515.000000</v>
+      </c>
+      <c r="B342" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D342" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E342" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>32515.500000</v>
+      </c>
+      <c r="B343" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D343" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E343" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>32516.000000</v>
+      </c>
+      <c r="B344" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C344" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D344" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="E344" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>32516.500000</v>
+      </c>
+      <c r="B345" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D345" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E345" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>32517.000000</v>
+      </c>
+      <c r="B346" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E346" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>32517.500000</v>
+      </c>
+      <c r="B347" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C347" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D347" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E347" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>32518.000000</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C348" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D348" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E348" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>32518.500000</v>
+      </c>
+      <c r="B349" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C349" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D349" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E349" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>32519.000000</v>
+      </c>
+      <c r="B350" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C350" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D350" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E350" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>32519.500000</v>
+      </c>
+      <c r="B351" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C351" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D351" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E351" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>32520.000000</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C352" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D352" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E352" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>32520.500000</v>
+      </c>
+      <c r="B353" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C353" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D353" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E353" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>32521.000000</v>
+      </c>
+      <c r="B354" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C354" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D354" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E354" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>32521.500000</v>
+      </c>
+      <c r="B355" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C355" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D355" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E355" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>32522.000000</v>
+      </c>
+      <c r="B356" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="C356" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D356" s="1">
+        <v>0.000290</v>
+      </c>
+      <c r="E356" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>32522.500000</v>
+      </c>
+      <c r="B357" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C357" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D357" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E357" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>32523.000000</v>
+      </c>
+      <c r="B358" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C358" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D358" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E358" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>32523.500000</v>
+      </c>
+      <c r="B359" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C359" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D359" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E359" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>32524.000000</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C360" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E360" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>32524.500000</v>
+      </c>
+      <c r="B361" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C361" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E361" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>32525.000000</v>
+      </c>
+      <c r="B362" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C362" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D362" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E362" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>32525.500000</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C363" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D363" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E363" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>32526.000000</v>
+      </c>
+      <c r="B364" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C364" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D364" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E364" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>32526.500000</v>
+      </c>
+      <c r="B365" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="C365" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D365" s="1">
+        <v>0.000291</v>
+      </c>
+      <c r="E365" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>32527.000000</v>
+      </c>
+      <c r="B366" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C366" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D366" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E366" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>32527.500000</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C367" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D367" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E367" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>32528.000000</v>
+      </c>
+      <c r="B368" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C368" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D368" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E368" s="1">
+        <v>-0.066000</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>32528.500000</v>
+      </c>
+      <c r="B369" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C369" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D369" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E369" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>32529.000000</v>
+      </c>
+      <c r="B370" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C370" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D370" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E370" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>32529.500000</v>
+      </c>
+      <c r="B371" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C371" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D371" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E371" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>32530.000000</v>
+      </c>
+      <c r="B372" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C372" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D372" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E372" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>32530.500000</v>
+      </c>
+      <c r="B373" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="C373" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D373" s="1">
+        <v>0.000292</v>
+      </c>
+      <c r="E373" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>32531.000000</v>
+      </c>
+      <c r="B374" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C374" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D374" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E374" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>32531.500000</v>
+      </c>
+      <c r="B375" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C375" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D375" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E375" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>32532.000000</v>
+      </c>
+      <c r="B376" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C376" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D376" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E376" s="1">
+        <v>-0.198000</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>32532.500000</v>
+      </c>
+      <c r="B377" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C377" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D377" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E377" s="1">
+        <v>-0.132000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>32533.000000</v>
+      </c>
+      <c r="B378" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C378" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D378" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E378" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>32533.500000</v>
+      </c>
+      <c r="B379" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C379" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D379" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E379" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>32534.000000</v>
+      </c>
+      <c r="B380" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="C380" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D380" s="1">
+        <v>0.000293</v>
+      </c>
+      <c r="E380" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>32534.500000</v>
+      </c>
+      <c r="B381" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C381" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D381" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E381" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>32535.000000</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C382" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D382" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E382" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>32535.500000</v>
+      </c>
+      <c r="B383" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C383" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D383" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E383" s="1">
+        <v>-0.192000</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>32536.000000</v>
+      </c>
+      <c r="B384" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C384" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D384" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E384" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>32536.500000</v>
+      </c>
+      <c r="B385" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C385" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D385" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E385" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>32537.000000</v>
+      </c>
+      <c r="B386" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C386" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D386" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E386" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>32537.500000</v>
+      </c>
+      <c r="B387" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="C387" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D387" s="1">
+        <v>0.000294</v>
+      </c>
+      <c r="E387" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>32538.000000</v>
+      </c>
+      <c r="B388" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="C388" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D388" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="E388" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>32538.500000</v>
+      </c>
+      <c r="B389" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="C389" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D389" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="E389" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>32539.000000</v>
+      </c>
+      <c r="B390" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="C390" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D390" s="1">
+        <v>0.000295</v>
+      </c>
+      <c r="E390" s="1">
+        <v>-0.258000</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>32539.500000</v>
+      </c>
+      <c r="B391" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C391" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D391" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E391" s="1">
+        <v>-0.324000</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>32540.000000</v>
+      </c>
+      <c r="B392" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C392" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D392" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E392" s="1">
+        <v>-0.324000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>32540.500000</v>
+      </c>
+      <c r="B393" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C393" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D393" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E393" s="1">
+        <v>-0.324000</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>32541.000000</v>
+      </c>
+      <c r="B394" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C394" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D394" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E394" s="1">
+        <v>-0.324000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>32541.500000</v>
+      </c>
+      <c r="B395" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C395" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D395" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E395" s="1">
+        <v>-0.324000</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>32542.000000</v>
+      </c>
+      <c r="B396" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C396" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D396" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E396" s="1">
+        <v>-0.384000</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>32542.500000</v>
+      </c>
+      <c r="B397" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="C397" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D397" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="E397" s="1">
+        <v>-0.384000</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>32543.000000</v>
+      </c>
+      <c r="B398" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="C398" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D398" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="E398" s="1">
+        <v>-0.384000</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>32543.500000</v>
+      </c>
+      <c r="B399" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="C399" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D399" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="E399" s="1">
+        <v>-0.384000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>32544.000000</v>
+      </c>
+      <c r="B400" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="C400" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D400" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="E400" s="1">
+        <v>-0.450000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>32544.500000</v>
+      </c>
+      <c r="B401" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="C401" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D401" s="1">
+        <v>0.000297</v>
+      </c>
+      <c r="E401" s="1">
+        <v>-0.450000</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>32545.000000</v>
+      </c>
+      <c r="B402" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="C402" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D402" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="E402" s="1">
+        <v>-0.450000</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>32545.500000</v>
+      </c>
+      <c r="B403" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="C403" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D403" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="E403" s="1">
+        <v>-0.450000</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>32546.000000</v>
+      </c>
+      <c r="B404" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="C404" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D404" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="E404" s="1">
+        <v>-0.510000</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>32546.500000</v>
+      </c>
+      <c r="B405" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="C405" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D405" s="1">
+        <v>0.000298</v>
+      </c>
+      <c r="E405" s="1">
+        <v>-0.510000</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>32547.000000</v>
+      </c>
+      <c r="B406" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="C406" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D406" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="E406" s="1">
+        <v>-0.510000</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>32547.500000</v>
+      </c>
+      <c r="B407" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="C407" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D407" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="E407" s="1">
+        <v>-0.576000</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>32548.000000</v>
+      </c>
+      <c r="B408" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="C408" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D408" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="E408" s="1">
+        <v>-0.576000</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>32548.500000</v>
+      </c>
+      <c r="B409" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="C409" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D409" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="E409" s="1">
+        <v>-0.576000</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>32549.000000</v>
+      </c>
+      <c r="B410" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="C410" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D410" s="1">
+        <v>0.000299</v>
+      </c>
+      <c r="E410" s="1">
+        <v>-0.576000</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>32549.500000</v>
+      </c>
+      <c r="B411" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="C411" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D411" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="E411" s="1">
+        <v>-0.636000</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>32550.000000</v>
+      </c>
+      <c r="B412" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="C412" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D412" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="E412" s="1">
+        <v>-0.636000</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>32550.500000</v>
+      </c>
+      <c r="B413" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="C413" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D413" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="E413" s="1">
+        <v>-0.702000</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>32551.000000</v>
+      </c>
+      <c r="B414" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="C414" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D414" s="1">
+        <v>0.000300</v>
+      </c>
+      <c r="E414" s="1">
+        <v>-0.702000</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>32551.500000</v>
+      </c>
+      <c r="B415" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="C415" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D415" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="E415" s="1">
+        <v>-0.762000</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>32552.000000</v>
+      </c>
+      <c r="B416" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="C416" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D416" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="E416" s="1">
+        <v>-0.762000</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>32552.500000</v>
+      </c>
+      <c r="B417" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="C417" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D417" s="1">
+        <v>0.000301</v>
+      </c>
+      <c r="E417" s="1">
+        <v>-0.762000</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>32553.000000</v>
+      </c>
+      <c r="B418" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="C418" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D418" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="E418" s="1">
+        <v>-0.822000</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>32553.500000</v>
+      </c>
+      <c r="B419" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="C419" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D419" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="E419" s="1">
+        <v>-0.822000</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>32554.000000</v>
+      </c>
+      <c r="B420" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="C420" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D420" s="1">
+        <v>0.000302</v>
+      </c>
+      <c r="E420" s="1">
+        <v>-0.882000</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>32554.500000</v>
+      </c>
+      <c r="B421" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="C421" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D421" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="E421" s="1">
+        <v>-0.882000</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>32555.000000</v>
+      </c>
+      <c r="B422" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="C422" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D422" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="E422" s="1">
+        <v>-0.942000</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1">
+        <v>32555.500000</v>
+      </c>
+      <c r="B423" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="C423" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D423" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="E423" s="1">
+        <v>-0.942000</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1">
+        <v>32556.000000</v>
+      </c>
+      <c r="B424" s="1">
+        <v>0.000304</v>
+      </c>
+      <c r="C424" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D424" s="1">
+        <v>0.000304</v>
+      </c>
+      <c r="E424" s="1">
+        <v>-1.002000</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>32556.500000</v>
+      </c>
+      <c r="B425" s="1">
+        <v>0.000304</v>
+      </c>
+      <c r="C425" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D425" s="1">
+        <v>0.000304</v>
+      </c>
+      <c r="E425" s="1">
+        <v>-1.068000</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>32557.000000</v>
+      </c>
+      <c r="B426" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="C426" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D426" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="E426" s="1">
+        <v>-1.062000</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1">
+        <v>32557.500000</v>
+      </c>
+      <c r="B427" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="C427" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D427" s="1">
+        <v>0.000305</v>
+      </c>
+      <c r="E427" s="1">
+        <v>-1.122000</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1">
+        <v>32558.000000</v>
+      </c>
+      <c r="B428" s="1">
+        <v>0.000306</v>
+      </c>
+      <c r="C428" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D428" s="1">
+        <v>0.000306</v>
+      </c>
+      <c r="E428" s="1">
+        <v>-1.188000</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1">
+        <v>32558.500000</v>
+      </c>
+      <c r="B429" s="1">
+        <v>0.000306</v>
+      </c>
+      <c r="C429" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D429" s="1">
+        <v>0.000306</v>
+      </c>
+      <c r="E429" s="1">
+        <v>-1.248000</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1">
+        <v>32559.000000</v>
+      </c>
+      <c r="B430" s="1">
+        <v>0.000307</v>
+      </c>
+      <c r="C430" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D430" s="1">
+        <v>0.000307</v>
+      </c>
+      <c r="E430" s="1">
+        <v>-1.248000</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1">
+        <v>32559.500000</v>
+      </c>
+      <c r="B431" s="1">
+        <v>0.000307</v>
+      </c>
+      <c r="C431" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D431" s="1">
+        <v>0.000307</v>
+      </c>
+      <c r="E431" s="1">
+        <v>-1.302000</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1">
+        <v>32560.000000</v>
+      </c>
+      <c r="B432" s="1">
+        <v>0.000308</v>
+      </c>
+      <c r="C432" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D432" s="1">
+        <v>0.000308</v>
+      </c>
+      <c r="E432" s="1">
+        <v>-1.368000</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1">
+        <v>32560.500000</v>
+      </c>
+      <c r="B433" s="1">
+        <v>0.000308</v>
+      </c>
+      <c r="C433" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D433" s="1">
+        <v>0.000308</v>
+      </c>
+      <c r="E433" s="1">
+        <v>-1.422000</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1">
+        <v>32561.000000</v>
+      </c>
+      <c r="B434" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="C434" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D434" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="E434" s="1">
+        <v>-1.482000</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1">
+        <v>32561.500000</v>
+      </c>
+      <c r="B435" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="C435" s="1">
+        <v>-0.000009</v>
+      </c>
+      <c r="D435" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="E435" s="1">
+        <v>-1.542000</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1">
+        <v>32562.000000</v>
+      </c>
+      <c r="B436" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="C436" s="1">
+        <v>-0.000009</v>
+      </c>
+      <c r="D436" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="E436" s="1">
+        <v>-1.602000</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1">
+        <v>32562.500000</v>
+      </c>
+      <c r="B437" s="1">
+        <v>0.000310</v>
+      </c>
+      <c r="C437" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D437" s="1">
+        <v>0.000310</v>
+      </c>
+      <c r="E437" s="1">
+        <v>-1.722000</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1">
+        <v>32563.000000</v>
+      </c>
+      <c r="B438" s="1">
+        <v>0.000311</v>
+      </c>
+      <c r="C438" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D438" s="1">
+        <v>0.000311</v>
+      </c>
+      <c r="E438" s="1">
+        <v>-1.782000</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1">
+        <v>32563.500000</v>
+      </c>
+      <c r="B439" s="1">
+        <v>0.000311</v>
+      </c>
+      <c r="C439" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D439" s="1">
+        <v>0.000311</v>
+      </c>
+      <c r="E439" s="1">
+        <v>-1.842000</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1">
+        <v>32564.000000</v>
+      </c>
+      <c r="B440" s="1">
+        <v>0.000312</v>
+      </c>
+      <c r="C440" s="1">
+        <v>-0.000011</v>
+      </c>
+      <c r="D440" s="1">
+        <v>0.000312</v>
+      </c>
+      <c r="E440" s="1">
+        <v>-1.956000</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1">
+        <v>32564.500000</v>
+      </c>
+      <c r="B441" s="1">
+        <v>0.000312</v>
+      </c>
+      <c r="C441" s="1">
+        <v>-0.000011</v>
+      </c>
+      <c r="D441" s="1">
+        <v>0.000313</v>
+      </c>
+      <c r="E441" s="1">
+        <v>-2.016000</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1">
+        <v>32565.000000</v>
+      </c>
+      <c r="B442" s="1">
+        <v>0.000313</v>
+      </c>
+      <c r="C442" s="1">
+        <v>-0.000012</v>
+      </c>
+      <c r="D442" s="1">
+        <v>0.000313</v>
+      </c>
+      <c r="E442" s="1">
+        <v>-2.130000</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1">
+        <v>32565.500000</v>
+      </c>
+      <c r="B443" s="1">
+        <v>0.000314</v>
+      </c>
+      <c r="C443" s="1">
+        <v>-0.000012</v>
+      </c>
+      <c r="D443" s="1">
+        <v>0.000314</v>
+      </c>
+      <c r="E443" s="1">
+        <v>-2.250000</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1">
+        <v>32566.000000</v>
+      </c>
+      <c r="B444" s="1">
+        <v>0.000314</v>
+      </c>
+      <c r="C444" s="1">
+        <v>-0.000013</v>
+      </c>
+      <c r="D444" s="1">
+        <v>0.000315</v>
+      </c>
+      <c r="E444" s="1">
+        <v>-2.304000</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1">
+        <v>32566.500000</v>
+      </c>
+      <c r="B445" s="1">
+        <v>0.000315</v>
+      </c>
+      <c r="C445" s="1">
+        <v>-0.000013</v>
+      </c>
+      <c r="D445" s="1">
+        <v>0.000315</v>
+      </c>
+      <c r="E445" s="1">
+        <v>-2.418000</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1">
+        <v>32567.000000</v>
+      </c>
+      <c r="B446" s="1">
+        <v>0.000316</v>
+      </c>
+      <c r="C446" s="1">
+        <v>-0.000014</v>
+      </c>
+      <c r="D446" s="1">
+        <v>0.000317</v>
+      </c>
+      <c r="E446" s="1">
+        <v>-2.532000</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1">
+        <v>32567.500000</v>
+      </c>
+      <c r="B447" s="1">
+        <v>0.000317</v>
+      </c>
+      <c r="C447" s="1">
+        <v>-0.000015</v>
+      </c>
+      <c r="D447" s="1">
+        <v>0.000317</v>
+      </c>
+      <c r="E447" s="1">
+        <v>-2.706000</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1">
+        <v>32568.000000</v>
+      </c>
+      <c r="B448" s="1">
+        <v>0.000318</v>
+      </c>
+      <c r="C448" s="1">
+        <v>-0.000016</v>
+      </c>
+      <c r="D448" s="1">
+        <v>0.000318</v>
+      </c>
+      <c r="E448" s="1">
+        <v>-2.826000</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1">
+        <v>32568.500000</v>
+      </c>
+      <c r="B449" s="1">
+        <v>0.000318</v>
+      </c>
+      <c r="C449" s="1">
+        <v>-0.000017</v>
+      </c>
+      <c r="D449" s="1">
+        <v>0.000319</v>
+      </c>
+      <c r="E449" s="1">
+        <v>-2.940000</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1">
+        <v>32569.000000</v>
+      </c>
+      <c r="B450" s="1">
+        <v>0.000319</v>
+      </c>
+      <c r="C450" s="1">
+        <v>-0.000018</v>
+      </c>
+      <c r="D450" s="1">
+        <v>0.000319</v>
+      </c>
+      <c r="E450" s="1">
+        <v>-3.108000</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1">
+        <v>32569.500000</v>
+      </c>
+      <c r="B451" s="1">
+        <v>0.000320</v>
+      </c>
+      <c r="C451" s="1">
+        <v>-0.000019</v>
+      </c>
+      <c r="D451" s="1">
+        <v>0.000320</v>
+      </c>
+      <c r="E451" s="1">
+        <v>-3.282000</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1">
+        <v>32570.000000</v>
+      </c>
+      <c r="B452" s="1">
+        <v>0.000321</v>
+      </c>
+      <c r="C452" s="1">
+        <v>-0.000020</v>
+      </c>
+      <c r="D452" s="1">
+        <v>0.000321</v>
+      </c>
+      <c r="E452" s="1">
+        <v>-3.450000</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1">
+        <v>32570.500000</v>
+      </c>
+      <c r="B453" s="1">
+        <v>0.000322</v>
+      </c>
+      <c r="C453" s="1">
+        <v>-0.000021</v>
+      </c>
+      <c r="D453" s="1">
+        <v>0.000322</v>
+      </c>
+      <c r="E453" s="1">
+        <v>-3.612000</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1">
+        <v>32571.000000</v>
+      </c>
+      <c r="B454" s="1">
+        <v>0.000322</v>
+      </c>
+      <c r="C454" s="1">
+        <v>-0.000022</v>
+      </c>
+      <c r="D454" s="1">
+        <v>0.000323</v>
+      </c>
+      <c r="E454" s="1">
+        <v>-3.840000</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1">
+        <v>32571.500000</v>
+      </c>
+      <c r="B455" s="1">
+        <v>0.000323</v>
+      </c>
+      <c r="C455" s="1">
+        <v>-0.000023</v>
+      </c>
+      <c r="D455" s="1">
+        <v>0.000324</v>
+      </c>
+      <c r="E455" s="1">
+        <v>-4.008000</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1">
+        <v>32572.000000</v>
+      </c>
+      <c r="B456" s="1">
+        <v>0.000324</v>
+      </c>
+      <c r="C456" s="1">
+        <v>-0.000025</v>
+      </c>
+      <c r="D456" s="1">
+        <v>0.000325</v>
+      </c>
+      <c r="E456" s="1">
+        <v>-4.284000</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1">
+        <v>32572.500000</v>
+      </c>
+      <c r="B457" s="1">
+        <v>0.000325</v>
+      </c>
+      <c r="C457" s="1">
+        <v>-0.000026</v>
+      </c>
+      <c r="D457" s="1">
+        <v>0.000326</v>
+      </c>
+      <c r="E457" s="1">
+        <v>-4.512000</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1">
+        <v>32573.000000</v>
+      </c>
+      <c r="B458" s="1">
+        <v>0.000326</v>
+      </c>
+      <c r="C458" s="1">
+        <v>-0.000028</v>
+      </c>
+      <c r="D458" s="1">
+        <v>0.000327</v>
+      </c>
+      <c r="E458" s="1">
+        <v>-4.788000</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1">
+        <v>32573.500000</v>
+      </c>
+      <c r="B459" s="1">
+        <v>0.000327</v>
+      </c>
+      <c r="C459" s="1">
+        <v>-0.000029</v>
+      </c>
+      <c r="D459" s="1">
+        <v>0.000329</v>
+      </c>
+      <c r="E459" s="1">
+        <v>-5.064000</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1">
+        <v>32574.000000</v>
+      </c>
+      <c r="B460" s="1">
+        <v>0.000328</v>
+      </c>
+      <c r="C460" s="1">
+        <v>-0.000031</v>
+      </c>
+      <c r="D460" s="1">
+        <v>0.000329</v>
+      </c>
+      <c r="E460" s="1">
+        <v>-5.394000</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1">
+        <v>32574.500000</v>
+      </c>
+      <c r="B461" s="1">
+        <v>0.000329</v>
+      </c>
+      <c r="C461" s="1">
+        <v>-0.000033</v>
+      </c>
+      <c r="D461" s="1">
+        <v>0.000330</v>
+      </c>
+      <c r="E461" s="1">
+        <v>-5.730000</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1">
+        <v>32575.000000</v>
+      </c>
+      <c r="B462" s="1">
+        <v>0.000330</v>
+      </c>
+      <c r="C462" s="1">
+        <v>-0.000035</v>
+      </c>
+      <c r="D462" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="E462" s="1">
+        <v>-6.054000</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1">
+        <v>32575.500000</v>
+      </c>
+      <c r="B463" s="1">
+        <v>0.000330</v>
+      </c>
+      <c r="C463" s="1">
+        <v>-0.000038</v>
+      </c>
+      <c r="D463" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="E463" s="1">
+        <v>-6.444000</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1">
+        <v>32576.000000</v>
+      </c>
+      <c r="B464" s="1">
+        <v>0.000331</v>
+      </c>
+      <c r="C464" s="1">
+        <v>-0.000040</v>
+      </c>
+      <c r="D464" s="1">
+        <v>0.000334</v>
+      </c>
+      <c r="E464" s="1">
+        <v>-6.876000</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1">
+        <v>32576.500000</v>
+      </c>
+      <c r="B465" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="C465" s="1">
+        <v>-0.000043</v>
+      </c>
+      <c r="D465" s="1">
+        <v>0.000335</v>
+      </c>
+      <c r="E465" s="1">
+        <v>-7.314000</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1">
+        <v>32577.000000</v>
+      </c>
+      <c r="B466" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="C466" s="1">
+        <v>-0.000046</v>
+      </c>
+      <c r="D466" s="1">
+        <v>0.000335</v>
+      </c>
+      <c r="E466" s="1">
+        <v>-7.818000</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1">
+        <v>32577.500000</v>
+      </c>
+      <c r="B467" s="1">
+        <v>0.000333</v>
+      </c>
+      <c r="C467" s="1">
+        <v>-0.000049</v>
+      </c>
+      <c r="D467" s="1">
+        <v>0.000336</v>
+      </c>
+      <c r="E467" s="1">
+        <v>-8.370000</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>32578.000000</v>
+      </c>
+      <c r="B468" s="1">
+        <v>0.000333</v>
+      </c>
+      <c r="C468" s="1">
+        <v>-0.000052</v>
+      </c>
+      <c r="D468" s="1">
+        <v>0.000337</v>
+      </c>
+      <c r="E468" s="1">
+        <v>-8.922000</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1">
+        <v>32578.500000</v>
+      </c>
+      <c r="B469" s="1">
+        <v>0.000333</v>
+      </c>
+      <c r="C469" s="1">
+        <v>-0.000056</v>
+      </c>
+      <c r="D469" s="1">
+        <v>0.000338</v>
+      </c>
+      <c r="E469" s="1">
+        <v>-9.540000</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1">
+        <v>32579.000000</v>
+      </c>
+      <c r="B470" s="1">
+        <v>0.000333</v>
+      </c>
+      <c r="C470" s="1">
+        <v>-0.000060</v>
+      </c>
+      <c r="D470" s="1">
+        <v>0.000339</v>
+      </c>
+      <c r="E470" s="1">
+        <v>-10.206000</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1">
+        <v>32579.500000</v>
+      </c>
+      <c r="B471" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="C471" s="1">
+        <v>-0.000064</v>
+      </c>
+      <c r="D471" s="1">
+        <v>0.000339</v>
+      </c>
+      <c r="E471" s="1">
+        <v>-10.944000</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1">
+        <v>32580.000000</v>
+      </c>
+      <c r="B472" s="1">
+        <v>0.000331</v>
+      </c>
+      <c r="C472" s="1">
+        <v>-0.000069</v>
+      </c>
+      <c r="D472" s="1">
+        <v>0.000339</v>
+      </c>
+      <c r="E472" s="1">
+        <v>-11.694000</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1">
+        <v>32580.500000</v>
+      </c>
+      <c r="B473" s="1">
+        <v>0.000330</v>
+      </c>
+      <c r="C473" s="1">
+        <v>-0.000073</v>
+      </c>
+      <c r="D473" s="1">
+        <v>0.000338</v>
+      </c>
+      <c r="E473" s="1">
+        <v>-12.516000</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1">
+        <v>32581.000000</v>
+      </c>
+      <c r="B474" s="1">
+        <v>0.000328</v>
+      </c>
+      <c r="C474" s="1">
+        <v>-0.000078</v>
+      </c>
+      <c r="D474" s="1">
+        <v>0.000337</v>
+      </c>
+      <c r="E474" s="1">
+        <v>-13.362000</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1">
+        <v>32581.500000</v>
+      </c>
+      <c r="B475" s="1">
+        <v>0.000326</v>
+      </c>
+      <c r="C475" s="1">
+        <v>-0.000083</v>
+      </c>
+      <c r="D475" s="1">
+        <v>0.000336</v>
+      </c>
+      <c r="E475" s="1">
+        <v>-14.286000</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1">
+        <v>32582.000000</v>
+      </c>
+      <c r="B476" s="1">
+        <v>0.000322</v>
+      </c>
+      <c r="C476" s="1">
+        <v>-0.000088</v>
+      </c>
+      <c r="D476" s="1">
+        <v>0.000334</v>
+      </c>
+      <c r="E476" s="1">
+        <v>-15.198000</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1">
+        <v>32582.500000</v>
+      </c>
+      <c r="B477" s="1">
+        <v>0.000319</v>
+      </c>
+      <c r="C477" s="1">
+        <v>-0.000093</v>
+      </c>
+      <c r="D477" s="1">
+        <v>0.000332</v>
+      </c>
+      <c r="E477" s="1">
+        <v>-16.200000</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1">
+        <v>32583.000000</v>
+      </c>
+      <c r="B478" s="1">
+        <v>0.000314</v>
+      </c>
+      <c r="C478" s="1">
+        <v>-0.000097</v>
+      </c>
+      <c r="D478" s="1">
+        <v>0.000329</v>
+      </c>
+      <c r="E478" s="1">
+        <v>-17.148000</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1">
+        <v>32583.500000</v>
+      </c>
+      <c r="B479" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="C479" s="1">
+        <v>-0.000102</v>
+      </c>
+      <c r="D479" s="1">
+        <v>0.000325</v>
+      </c>
+      <c r="E479" s="1">
+        <v>-18.156000</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1">
+        <v>32584.000000</v>
+      </c>
+      <c r="B480" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="C480" s="1">
+        <v>-0.000105</v>
+      </c>
+      <c r="D480" s="1">
+        <v>0.000320</v>
+      </c>
+      <c r="E480" s="1">
+        <v>-19.056000</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1">
+        <v>32584.500000</v>
+      </c>
+      <c r="B481" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="C481" s="1">
+        <v>-0.000108</v>
+      </c>
+      <c r="D481" s="1">
+        <v>0.000315</v>
+      </c>
+      <c r="E481" s="1">
+        <v>-19.968000</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1">
+        <v>32585.000000</v>
+      </c>
+      <c r="B482" s="1">
+        <v>0.000289</v>
+      </c>
+      <c r="C482" s="1">
+        <v>-0.000110</v>
+      </c>
+      <c r="D482" s="1">
+        <v>0.000309</v>
+      </c>
+      <c r="E482" s="1">
+        <v>-20.760000</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1">
+        <v>32585.500000</v>
+      </c>
+      <c r="B483" s="1">
+        <v>0.000282</v>
+      </c>
+      <c r="C483" s="1">
+        <v>-0.000111</v>
+      </c>
+      <c r="D483" s="1">
+        <v>0.000303</v>
+      </c>
+      <c r="E483" s="1">
+        <v>-21.486000</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1">
+        <v>32586.000000</v>
+      </c>
+      <c r="B484" s="1">
+        <v>0.000274</v>
+      </c>
+      <c r="C484" s="1">
+        <v>-0.000111</v>
+      </c>
+      <c r="D484" s="1">
+        <v>0.000296</v>
+      </c>
+      <c r="E484" s="1">
+        <v>-22.032000</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1">
+        <v>32586.500000</v>
+      </c>
+      <c r="B485" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="C485" s="1">
+        <v>-0.000110</v>
+      </c>
+      <c r="D485" s="1">
+        <v>0.000288</v>
+      </c>
+      <c r="E485" s="1">
+        <v>-22.416000</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1">
+        <v>32587.000000</v>
+      </c>
+      <c r="B486" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C486" s="1">
+        <v>-0.000108</v>
+      </c>
+      <c r="D486" s="1">
+        <v>0.000281</v>
+      </c>
+      <c r="E486" s="1">
+        <v>-22.584000</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1">
+        <v>32587.500000</v>
+      </c>
+      <c r="B487" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="C487" s="1">
+        <v>-0.000106</v>
+      </c>
+      <c r="D487" s="1">
+        <v>0.000274</v>
+      </c>
+      <c r="E487" s="1">
+        <v>-22.668000</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1">
+        <v>32588.000000</v>
+      </c>
+      <c r="B488" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="C488" s="1">
+        <v>-0.000102</v>
+      </c>
+      <c r="D488" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="E488" s="1">
+        <v>-22.464000</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1">
+        <v>32588.500000</v>
+      </c>
+      <c r="B489" s="1">
+        <v>0.000241</v>
+      </c>
+      <c r="C489" s="1">
+        <v>-0.000098</v>
+      </c>
+      <c r="D489" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E489" s="1">
+        <v>-22.128000</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1">
+        <v>32589.000000</v>
+      </c>
+      <c r="B490" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="C490" s="1">
+        <v>-0.000093</v>
+      </c>
+      <c r="D490" s="1">
+        <v>0.000254</v>
+      </c>
+      <c r="E490" s="1">
+        <v>-21.552000</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1">
+        <v>32589.500000</v>
+      </c>
+      <c r="B491" s="1">
+        <v>0.000232</v>
+      </c>
+      <c r="C491" s="1">
+        <v>-0.000089</v>
+      </c>
+      <c r="D491" s="1">
+        <v>0.000248</v>
+      </c>
+      <c r="E491" s="1">
+        <v>-20.886000</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1">
+        <v>32590.000000</v>
+      </c>
+      <c r="B492" s="1">
+        <v>0.000229</v>
+      </c>
+      <c r="C492" s="1">
+        <v>-0.000084</v>
+      </c>
+      <c r="D492" s="1">
+        <v>0.000243</v>
+      </c>
+      <c r="E492" s="1">
+        <v>-20.070000</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1">
+        <v>32590.500000</v>
+      </c>
+      <c r="B493" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="C493" s="1">
+        <v>-0.000079</v>
+      </c>
+      <c r="D493" s="1">
+        <v>0.000239</v>
+      </c>
+      <c r="E493" s="1">
+        <v>-19.164000</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1">
+        <v>32591.000000</v>
+      </c>
+      <c r="B494" s="1">
+        <v>0.000224</v>
+      </c>
+      <c r="C494" s="1">
+        <v>-0.000074</v>
+      </c>
+      <c r="D494" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="E494" s="1">
+        <v>-18.258000</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1">
+        <v>32591.500000</v>
+      </c>
+      <c r="B495" s="1">
+        <v>0.000223</v>
+      </c>
+      <c r="C495" s="1">
+        <v>-0.000070</v>
+      </c>
+      <c r="D495" s="1">
+        <v>0.000234</v>
+      </c>
+      <c r="E495" s="1">
+        <v>-17.268000</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1">
+        <v>32592.000000</v>
+      </c>
+      <c r="B496" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C496" s="1">
+        <v>-0.000065</v>
+      </c>
+      <c r="D496" s="1">
+        <v>0.000231</v>
+      </c>
+      <c r="E496" s="1">
+        <v>-16.266000</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1">
+        <v>32592.500000</v>
+      </c>
+      <c r="B497" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C497" s="1">
+        <v>-0.000061</v>
+      </c>
+      <c r="D497" s="1">
+        <v>0.000229</v>
+      </c>
+      <c r="E497" s="1">
+        <v>-15.270000</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1">
+        <v>32593.000000</v>
+      </c>
+      <c r="B498" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C498" s="1">
+        <v>-0.000057</v>
+      </c>
+      <c r="D498" s="1">
+        <v>0.000228</v>
+      </c>
+      <c r="E498" s="1">
+        <v>-14.298000</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1">
+        <v>32593.500000</v>
+      </c>
+      <c r="B499" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C499" s="1">
+        <v>-0.000053</v>
+      </c>
+      <c r="D499" s="1">
+        <v>0.000227</v>
+      </c>
+      <c r="E499" s="1">
+        <v>-13.404000</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1">
+        <v>32594.000000</v>
+      </c>
+      <c r="B500" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C500" s="1">
+        <v>-0.000049</v>
+      </c>
+      <c r="D500" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="E500" s="1">
+        <v>-12.480000</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1">
+        <v>32594.500000</v>
+      </c>
+      <c r="B501" s="1">
+        <v>0.000221</v>
+      </c>
+      <c r="C501" s="1">
+        <v>-0.000046</v>
+      </c>
+      <c r="D501" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="E501" s="1">
+        <v>-11.640000</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1">
+        <v>32595.000000</v>
+      </c>
+      <c r="B502" s="1">
+        <v>0.000222</v>
+      </c>
+      <c r="C502" s="1">
+        <v>-0.000043</v>
+      </c>
+      <c r="D502" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="E502" s="1">
+        <v>-10.866000</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1">
+        <v>32595.500000</v>
+      </c>
+      <c r="B503" s="1">
+        <v>0.000223</v>
+      </c>
+      <c r="C503" s="1">
+        <v>-0.000040</v>
+      </c>
+      <c r="D503" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="E503" s="1">
+        <v>-10.086000</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1">
+        <v>32596.000000</v>
+      </c>
+      <c r="B504" s="1">
+        <v>0.000224</v>
+      </c>
+      <c r="C504" s="1">
+        <v>-0.000038</v>
+      </c>
+      <c r="D504" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="E504" s="1">
+        <v>-9.474000</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1">
+        <v>32596.500000</v>
+      </c>
+      <c r="B505" s="1">
+        <v>0.000225</v>
+      </c>
+      <c r="C505" s="1">
+        <v>-0.000035</v>
+      </c>
+      <c r="D505" s="1">
+        <v>0.000227</v>
+      </c>
+      <c r="E505" s="1">
+        <v>-8.856000</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1">
+        <v>32597.000000</v>
+      </c>
+      <c r="B506" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="C506" s="1">
+        <v>-0.000033</v>
+      </c>
+      <c r="D506" s="1">
+        <v>0.000228</v>
+      </c>
+      <c r="E506" s="1">
+        <v>-8.238000</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1">
+        <v>32597.500000</v>
+      </c>
+      <c r="B507" s="1">
+        <v>0.000226</v>
+      </c>
+      <c r="C507" s="1">
+        <v>-0.000031</v>
+      </c>
+      <c r="D507" s="1">
+        <v>0.000228</v>
+      </c>
+      <c r="E507" s="1">
+        <v>-7.632000</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1">
+        <v>32598.000000</v>
+      </c>
+      <c r="B508" s="1">
+        <v>0.000227</v>
+      </c>
+      <c r="C508" s="1">
+        <v>-0.000029</v>
+      </c>
+      <c r="D508" s="1">
+        <v>0.000229</v>
+      </c>
+      <c r="E508" s="1">
+        <v>-7.188000</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1">
+        <v>32598.500000</v>
+      </c>
+      <c r="B509" s="1">
+        <v>0.000228</v>
+      </c>
+      <c r="C509" s="1">
+        <v>-0.000027</v>
+      </c>
+      <c r="D509" s="1">
+        <v>0.000230</v>
+      </c>
+      <c r="E509" s="1">
+        <v>-6.660000</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1">
+        <v>32599.000000</v>
+      </c>
+      <c r="B510" s="1">
+        <v>0.000229</v>
+      </c>
+      <c r="C510" s="1">
+        <v>-0.000026</v>
+      </c>
+      <c r="D510" s="1">
+        <v>0.000230</v>
+      </c>
+      <c r="E510" s="1">
+        <v>-6.300000</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1">
+        <v>32599.500000</v>
+      </c>
+      <c r="B511" s="1">
+        <v>0.000230</v>
+      </c>
+      <c r="C511" s="1">
+        <v>-0.000024</v>
+      </c>
+      <c r="D511" s="1">
+        <v>0.000231</v>
+      </c>
+      <c r="E511" s="1">
+        <v>-5.868000</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1">
+        <v>32600.000000</v>
+      </c>
+      <c r="B512" s="1">
+        <v>0.000231</v>
+      </c>
+      <c r="C512" s="1">
+        <v>-0.000022</v>
+      </c>
+      <c r="D512" s="1">
+        <v>0.000232</v>
+      </c>
+      <c r="E512" s="1">
+        <v>-5.514000</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1">
+        <v>32600.500000</v>
+      </c>
+      <c r="B513" s="1">
+        <v>0.000232</v>
+      </c>
+      <c r="C513" s="1">
+        <v>-0.000021</v>
+      </c>
+      <c r="D513" s="1">
+        <v>0.000233</v>
+      </c>
+      <c r="E513" s="1">
+        <v>-5.172000</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1">
+        <v>32601.000000</v>
+      </c>
+      <c r="B514" s="1">
+        <v>0.000233</v>
+      </c>
+      <c r="C514" s="1">
+        <v>-0.000020</v>
+      </c>
+      <c r="D514" s="1">
+        <v>0.000234</v>
+      </c>
+      <c r="E514" s="1">
+        <v>-4.824000</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1">
+        <v>32601.500000</v>
+      </c>
+      <c r="B515" s="1">
+        <v>0.000234</v>
+      </c>
+      <c r="C515" s="1">
+        <v>-0.000019</v>
+      </c>
+      <c r="D515" s="1">
+        <v>0.000235</v>
+      </c>
+      <c r="E515" s="1">
+        <v>-4.560000</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1">
+        <v>32602.000000</v>
+      </c>
+      <c r="B516" s="1">
+        <v>0.000235</v>
+      </c>
+      <c r="C516" s="1">
+        <v>-0.000018</v>
+      </c>
+      <c r="D516" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="E516" s="1">
+        <v>-4.302000</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1">
+        <v>32602.500000</v>
+      </c>
+      <c r="B517" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="C517" s="1">
+        <v>-0.000017</v>
+      </c>
+      <c r="D517" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="E517" s="1">
+        <v>-4.044000</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1">
+        <v>32603.000000</v>
+      </c>
+      <c r="B518" s="1">
+        <v>0.000236</v>
+      </c>
+      <c r="C518" s="1">
+        <v>-0.000016</v>
+      </c>
+      <c r="D518" s="1">
+        <v>0.000237</v>
+      </c>
+      <c r="E518" s="1">
+        <v>-3.792000</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1">
+        <v>32603.500000</v>
+      </c>
+      <c r="B519" s="1">
+        <v>0.000237</v>
+      </c>
+      <c r="C519" s="1">
+        <v>-0.000015</v>
+      </c>
+      <c r="D519" s="1">
+        <v>0.000237</v>
+      </c>
+      <c r="E519" s="1">
+        <v>-3.618000</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1">
+        <v>32604.000000</v>
+      </c>
+      <c r="B520" s="1">
+        <v>0.000238</v>
+      </c>
+      <c r="C520" s="1">
+        <v>-0.000014</v>
+      </c>
+      <c r="D520" s="1">
+        <v>0.000238</v>
+      </c>
+      <c r="E520" s="1">
+        <v>-3.366000</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1">
+        <v>32604.500000</v>
+      </c>
+      <c r="B521" s="1">
+        <v>0.000239</v>
+      </c>
+      <c r="C521" s="1">
+        <v>-0.000013</v>
+      </c>
+      <c r="D521" s="1">
+        <v>0.000239</v>
+      </c>
+      <c r="E521" s="1">
+        <v>-3.192000</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1">
+        <v>32605.000000</v>
+      </c>
+      <c r="B522" s="1">
+        <v>0.000239</v>
+      </c>
+      <c r="C522" s="1">
+        <v>-0.000013</v>
+      </c>
+      <c r="D522" s="1">
+        <v>0.000240</v>
+      </c>
+      <c r="E522" s="1">
+        <v>-3.024000</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1">
+        <v>32605.500000</v>
+      </c>
+      <c r="B523" s="1">
+        <v>0.000240</v>
+      </c>
+      <c r="C523" s="1">
+        <v>-0.000012</v>
+      </c>
+      <c r="D523" s="1">
+        <v>0.000240</v>
+      </c>
+      <c r="E523" s="1">
+        <v>-2.856000</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1">
+        <v>32606.000000</v>
+      </c>
+      <c r="B524" s="1">
+        <v>0.000241</v>
+      </c>
+      <c r="C524" s="1">
+        <v>-0.000012</v>
+      </c>
+      <c r="D524" s="1">
+        <v>0.000241</v>
+      </c>
+      <c r="E524" s="1">
+        <v>-2.772000</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1">
+        <v>32606.500000</v>
+      </c>
+      <c r="B525" s="1">
+        <v>0.000241</v>
+      </c>
+      <c r="C525" s="1">
+        <v>-0.000011</v>
+      </c>
+      <c r="D525" s="1">
+        <v>0.000242</v>
+      </c>
+      <c r="E525" s="1">
+        <v>-2.604000</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1">
+        <v>32607.000000</v>
+      </c>
+      <c r="B526" s="1">
+        <v>0.000242</v>
+      </c>
+      <c r="C526" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D526" s="1">
+        <v>0.000243</v>
+      </c>
+      <c r="E526" s="1">
+        <v>-2.436000</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1">
+        <v>32607.500000</v>
+      </c>
+      <c r="B527" s="1">
+        <v>0.000243</v>
+      </c>
+      <c r="C527" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D527" s="1">
+        <v>0.000243</v>
+      </c>
+      <c r="E527" s="1">
+        <v>-2.358000</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1">
+        <v>32608.000000</v>
+      </c>
+      <c r="B528" s="1">
+        <v>0.000243</v>
+      </c>
+      <c r="C528" s="1">
+        <v>-0.000010</v>
+      </c>
+      <c r="D528" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E528" s="1">
+        <v>-2.190000</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1">
+        <v>32608.500000</v>
+      </c>
+      <c r="B529" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="C529" s="1">
+        <v>-0.000009</v>
+      </c>
+      <c r="D529" s="1">
+        <v>0.000244</v>
+      </c>
+      <c r="E529" s="1">
+        <v>-2.112000</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1">
+        <v>32609.000000</v>
+      </c>
+      <c r="B530" s="1">
+        <v>0.000245</v>
+      </c>
+      <c r="C530" s="1">
+        <v>-0.000009</v>
+      </c>
+      <c r="D530" s="1">
+        <v>0.000245</v>
+      </c>
+      <c r="E530" s="1">
+        <v>-2.028000</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1">
+        <v>32609.500000</v>
+      </c>
+      <c r="B531" s="1">
+        <v>0.000245</v>
+      </c>
+      <c r="C531" s="1">
+        <v>-0.000009</v>
+      </c>
+      <c r="D531" s="1">
+        <v>0.000245</v>
+      </c>
+      <c r="E531" s="1">
+        <v>-1.944000</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1">
+        <v>32610.000000</v>
+      </c>
+      <c r="B532" s="1">
+        <v>0.000246</v>
+      </c>
+      <c r="C532" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D532" s="1">
+        <v>0.000246</v>
+      </c>
+      <c r="E532" s="1">
+        <v>-1.782000</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1">
+        <v>32610.500000</v>
+      </c>
+      <c r="B533" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="C533" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D533" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="E533" s="1">
+        <v>-1.704000</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1">
+        <v>32611.000000</v>
+      </c>
+      <c r="B534" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="C534" s="1">
+        <v>-0.000008</v>
+      </c>
+      <c r="D534" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="E534" s="1">
+        <v>-1.698000</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1">
+        <v>32611.500000</v>
+      </c>
+      <c r="B535" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="C535" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D535" s="1">
+        <v>0.000247</v>
+      </c>
+      <c r="E535" s="1">
+        <v>-1.620000</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1">
+        <v>32612.000000</v>
+      </c>
+      <c r="B536" s="1">
+        <v>0.000248</v>
+      </c>
+      <c r="C536" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D536" s="1">
+        <v>0.000248</v>
+      </c>
+      <c r="E536" s="1">
+        <v>-1.542000</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1">
+        <v>32612.500000</v>
+      </c>
+      <c r="B537" s="1">
+        <v>0.000248</v>
+      </c>
+      <c r="C537" s="1">
+        <v>-0.000007</v>
+      </c>
+      <c r="D537" s="1">
+        <v>0.000248</v>
+      </c>
+      <c r="E537" s="1">
+        <v>-1.458000</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1">
+        <v>32613.000000</v>
+      </c>
+      <c r="B538" s="1">
+        <v>0.000249</v>
+      </c>
+      <c r="C538" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D538" s="1">
+        <v>0.000249</v>
+      </c>
+      <c r="E538" s="1">
+        <v>-1.380000</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1">
+        <v>32613.500000</v>
+      </c>
+      <c r="B539" s="1">
+        <v>0.000249</v>
+      </c>
+      <c r="C539" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D539" s="1">
+        <v>0.000249</v>
+      </c>
+      <c r="E539" s="1">
+        <v>-1.302000</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1">
+        <v>32614.000000</v>
+      </c>
+      <c r="B540" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="C540" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D540" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="E540" s="1">
+        <v>-1.224000</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1">
+        <v>32614.500000</v>
+      </c>
+      <c r="B541" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="C541" s="1">
+        <v>-0.000006</v>
+      </c>
+      <c r="D541" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="E541" s="1">
+        <v>-1.218000</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1">
+        <v>32615.000000</v>
+      </c>
+      <c r="B542" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="C542" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D542" s="1">
+        <v>0.000250</v>
+      </c>
+      <c r="E542" s="1">
+        <v>-1.140000</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1">
+        <v>32615.500000</v>
+      </c>
+      <c r="B543" s="1">
+        <v>0.000251</v>
+      </c>
+      <c r="C543" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D543" s="1">
+        <v>0.000251</v>
+      </c>
+      <c r="E543" s="1">
+        <v>-1.062000</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1">
+        <v>32616.000000</v>
+      </c>
+      <c r="B544" s="1">
+        <v>0.000251</v>
+      </c>
+      <c r="C544" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D544" s="1">
+        <v>0.000251</v>
+      </c>
+      <c r="E544" s="1">
+        <v>-1.062000</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1">
+        <v>32616.500000</v>
+      </c>
+      <c r="B545" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="C545" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D545" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="E545" s="1">
+        <v>-0.984000</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1">
+        <v>32617.000000</v>
+      </c>
+      <c r="B546" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="C546" s="1">
+        <v>-0.000005</v>
+      </c>
+      <c r="D546" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="E546" s="1">
+        <v>-0.984000</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1">
+        <v>32617.500000</v>
+      </c>
+      <c r="B547" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="C547" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D547" s="1">
+        <v>0.000252</v>
+      </c>
+      <c r="E547" s="1">
+        <v>-0.906000</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1">
+        <v>32618.000000</v>
+      </c>
+      <c r="B548" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="C548" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D548" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="E548" s="1">
+        <v>-0.906000</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1">
+        <v>32618.500000</v>
+      </c>
+      <c r="B549" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="C549" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D549" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="E549" s="1">
+        <v>-0.828000</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1">
+        <v>32619.000000</v>
+      </c>
+      <c r="B550" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="C550" s="1">
+        <v>-0.000004</v>
+      </c>
+      <c r="D550" s="1">
+        <v>0.000253</v>
+      </c>
+      <c r="E550" s="1">
+        <v>-0.828000</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1">
+        <v>32619.500000</v>
+      </c>
+      <c r="B551" s="1">
+        <v>0.000254</v>
+      </c>
+      <c r="C551" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D551" s="1">
+        <v>0.000254</v>
+      </c>
+      <c r="E551" s="1">
+        <v>-0.750000</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1">
+        <v>32620.000000</v>
+      </c>
+      <c r="B552" s="1">
+        <v>0.000254</v>
+      </c>
+      <c r="C552" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D552" s="1">
+        <v>0.000254</v>
+      </c>
+      <c r="E552" s="1">
+        <v>-0.750000</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1">
+        <v>32620.500000</v>
+      </c>
+      <c r="B553" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="C553" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D553" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="E553" s="1">
+        <v>-0.678000</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1">
+        <v>32621.000000</v>
+      </c>
+      <c r="B554" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="C554" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D554" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="E554" s="1">
+        <v>-0.672000</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>32621.500000</v>
+      </c>
+      <c r="B555" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="C555" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D555" s="1">
+        <v>0.000255</v>
+      </c>
+      <c r="E555" s="1">
+        <v>-0.672000</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>32622.000000</v>
+      </c>
+      <c r="B556" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="C556" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D556" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="E556" s="1">
+        <v>-0.600000</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>32622.500000</v>
+      </c>
+      <c r="B557" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="C557" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D557" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="E557" s="1">
+        <v>-0.600000</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>32623.000000</v>
+      </c>
+      <c r="B558" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="C558" s="1">
+        <v>-0.000003</v>
+      </c>
+      <c r="D558" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="E558" s="1">
+        <v>-0.600000</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>32623.500000</v>
+      </c>
+      <c r="B559" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="C559" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D559" s="1">
+        <v>0.000256</v>
+      </c>
+      <c r="E559" s="1">
+        <v>-0.522000</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>32624.000000</v>
+      </c>
+      <c r="B560" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="C560" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D560" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="E560" s="1">
+        <v>-0.522000</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>32624.500000</v>
+      </c>
+      <c r="B561" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="C561" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D561" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="E561" s="1">
+        <v>-0.522000</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>32625.000000</v>
+      </c>
+      <c r="B562" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="C562" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D562" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="E562" s="1">
+        <v>-0.516000</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>32625.500000</v>
+      </c>
+      <c r="B563" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="C563" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D563" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="E563" s="1">
+        <v>-0.444000</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>32626.000000</v>
+      </c>
+      <c r="B564" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="C564" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D564" s="1">
+        <v>0.000257</v>
+      </c>
+      <c r="E564" s="1">
+        <v>-0.444000</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>32626.500000</v>
+      </c>
+      <c r="B565" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="C565" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D565" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="E565" s="1">
+        <v>-0.444000</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>32627.000000</v>
+      </c>
+      <c r="B566" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="C566" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D566" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="E566" s="1">
+        <v>-0.372000</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>32627.500000</v>
+      </c>
+      <c r="B567" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="C567" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D567" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="E567" s="1">
+        <v>-0.372000</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>32628.000000</v>
+      </c>
+      <c r="B568" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="C568" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D568" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="E568" s="1">
+        <v>-0.366000</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>32628.500000</v>
+      </c>
+      <c r="B569" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="C569" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D569" s="1">
+        <v>0.000258</v>
+      </c>
+      <c r="E569" s="1">
+        <v>-0.366000</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1">
+        <v>32629.000000</v>
+      </c>
+      <c r="B570" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C570" s="1">
+        <v>-0.000002</v>
+      </c>
+      <c r="D570" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="E570" s="1">
+        <v>-0.366000</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1">
+        <v>32629.500000</v>
+      </c>
+      <c r="B571" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C571" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D571" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="E571" s="1">
+        <v>-0.294000</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1">
+        <v>32630.000000</v>
+      </c>
+      <c r="B572" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C572" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D572" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="E572" s="1">
+        <v>-0.294000</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1">
+        <v>32630.500000</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C573" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D573" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="E573" s="1">
+        <v>-0.294000</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1">
+        <v>32631.000000</v>
+      </c>
+      <c r="B574" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="C574" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D574" s="1">
+        <v>0.000259</v>
+      </c>
+      <c r="E574" s="1">
+        <v>-0.294000</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1">
+        <v>32631.500000</v>
+      </c>
+      <c r="B575" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C575" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D575" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E575" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1">
+        <v>32632.000000</v>
+      </c>
+      <c r="B576" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C576" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D576" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E576" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1">
+        <v>32632.500000</v>
+      </c>
+      <c r="B577" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C577" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D577" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E577" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1">
+        <v>32633.000000</v>
+      </c>
+      <c r="B578" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C578" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D578" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E578" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>32633.500000</v>
+      </c>
+      <c r="B579" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C579" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D579" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E579" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>32634.000000</v>
+      </c>
+      <c r="B580" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="C580" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D580" s="1">
+        <v>0.000260</v>
+      </c>
+      <c r="E580" s="1">
+        <v>-0.222000</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>32634.500000</v>
+      </c>
+      <c r="B581" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C581" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D581" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E581" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>32635.000000</v>
+      </c>
+      <c r="B582" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C582" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D582" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E582" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>32635.500000</v>
+      </c>
+      <c r="B583" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C583" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D583" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E583" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>32636.000000</v>
+      </c>
+      <c r="B584" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C584" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D584" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E584" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>32636.500000</v>
+      </c>
+      <c r="B585" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C585" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D585" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E585" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>32637.000000</v>
+      </c>
+      <c r="B586" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="C586" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D586" s="1">
+        <v>0.000261</v>
+      </c>
+      <c r="E586" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>32637.500000</v>
+      </c>
+      <c r="B587" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C587" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D587" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E587" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>32638.000000</v>
+      </c>
+      <c r="B588" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C588" s="1">
+        <v>-0.000001</v>
+      </c>
+      <c r="D588" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E588" s="1">
+        <v>-0.144000</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>32638.500000</v>
+      </c>
+      <c r="B589" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C589" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D589" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E589" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>32639.000000</v>
+      </c>
+      <c r="B590" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C590" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D590" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E590" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>32639.500000</v>
+      </c>
+      <c r="B591" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C591" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D591" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E591" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>32640.000000</v>
+      </c>
+      <c r="B592" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="C592" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D592" s="1">
+        <v>0.000262</v>
+      </c>
+      <c r="E592" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>32640.500000</v>
+      </c>
+      <c r="B593" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C593" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D593" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E593" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>32641.000000</v>
+      </c>
+      <c r="B594" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C594" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D594" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E594" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>32641.500000</v>
+      </c>
+      <c r="B595" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C595" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D595" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E595" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>32642.000000</v>
+      </c>
+      <c r="B596" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C596" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D596" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E596" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>32642.500000</v>
+      </c>
+      <c r="B597" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C597" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D597" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E597" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>32643.000000</v>
+      </c>
+      <c r="B598" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C598" s="1">
+        <v>-0.000000</v>
+      </c>
+      <c r="D598" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E598" s="1">
+        <v>-0.072000</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>32643.500000</v>
+      </c>
+      <c r="B599" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C599" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D599" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E599" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>32644.000000</v>
+      </c>
+      <c r="B600" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C600" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D600" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E600" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>32644.500000</v>
+      </c>
+      <c r="B601" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="C601" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D601" s="1">
+        <v>0.000263</v>
+      </c>
+      <c r="E601" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>32645.000000</v>
+      </c>
+      <c r="B602" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C602" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D602" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E602" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>32645.500000</v>
+      </c>
+      <c r="B603" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C603" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D603" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E603" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>32646.000000</v>
+      </c>
+      <c r="B604" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C604" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D604" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E604" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>32646.500000</v>
+      </c>
+      <c r="B605" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C605" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D605" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E605" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>32647.000000</v>
+      </c>
+      <c r="B606" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C606" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D606" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E606" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>32647.500000</v>
+      </c>
+      <c r="B607" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="C607" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D607" s="1">
+        <v>0.000264</v>
+      </c>
+      <c r="E607" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>32648.000000</v>
+      </c>
+      <c r="B608" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C608" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D608" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E608" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>32648.500000</v>
+      </c>
+      <c r="B609" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C609" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D609" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E609" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>32649.000000</v>
+      </c>
+      <c r="B610" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C610" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D610" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E610" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>32649.500000</v>
+      </c>
+      <c r="B611" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C611" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D611" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E611" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>32650.000000</v>
+      </c>
+      <c r="B612" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C612" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D612" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E612" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>32650.500000</v>
+      </c>
+      <c r="B613" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C613" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D613" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E613" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>32651.000000</v>
+      </c>
+      <c r="B614" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C614" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D614" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E614" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>32651.500000</v>
+      </c>
+      <c r="B615" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C615" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D615" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E615" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>32652.000000</v>
+      </c>
+      <c r="B616" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C616" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D616" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E616" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>32652.500000</v>
+      </c>
+      <c r="B617" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="C617" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D617" s="1">
+        <v>0.000265</v>
+      </c>
+      <c r="E617" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>32653.000000</v>
+      </c>
+      <c r="B618" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C618" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D618" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E618" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>32653.500000</v>
+      </c>
+      <c r="B619" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C619" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D619" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E619" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>32654.000000</v>
+      </c>
+      <c r="B620" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C620" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D620" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E620" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>32654.500000</v>
+      </c>
+      <c r="B621" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C621" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D621" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E621" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>32655.000000</v>
+      </c>
+      <c r="B622" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C622" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D622" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E622" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>32655.500000</v>
+      </c>
+      <c r="B623" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C623" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D623" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E623" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>32656.000000</v>
+      </c>
+      <c r="B624" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C624" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D624" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E624" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>32656.500000</v>
+      </c>
+      <c r="B625" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C625" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D625" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E625" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>32657.000000</v>
+      </c>
+      <c r="B626" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C626" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D626" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E626" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>32657.500000</v>
+      </c>
+      <c r="B627" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C627" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D627" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E627" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>32658.000000</v>
+      </c>
+      <c r="B628" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C628" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D628" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E628" s="1">
+        <v>0.144000</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>32658.500000</v>
+      </c>
+      <c r="B629" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="C629" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D629" s="1">
+        <v>0.000266</v>
+      </c>
+      <c r="E629" s="1">
+        <v>0.144000</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>32659.000000</v>
+      </c>
+      <c r="B630" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="C630" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D630" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="E630" s="1">
+        <v>0.072000</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>32659.500000</v>
+      </c>
+      <c r="B631" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="C631" s="1">
+        <v>0.000000</v>
+      </c>
+      <c r="D631" s="1">
+        <v>0.000267</v>
+      </c>
+      <c r="E631" s="1">
+        <v>0.144000</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>